--- a/TA/InputGrades.xlsx
+++ b/TA/InputGrades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - The Chinese University of Hong Kong\CUHK TA\toolkit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\toolkit\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Yes</t>
   </si>
@@ -68,45 +68,24 @@
     <t>Input Partial SID</t>
   </si>
   <si>
-    <t>Hilbert</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
-    <t>Tao</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
     <t>San</t>
   </si>
   <si>
     <t>Si</t>
   </si>
   <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>Euler</t>
-  </si>
-  <si>
     <t>Leonhard</t>
   </si>
   <si>
     <t>Bernhard</t>
   </si>
   <si>
-    <t>Riemann</t>
-  </si>
-  <si>
     <t>David Hilbert</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Terence Tao</t>
   </si>
   <si>
@@ -119,31 +98,52 @@
     <t>Bernhard Riemann</t>
   </si>
   <si>
-    <t>Wang</t>
-  </si>
-  <si>
     <t>Wu</t>
   </si>
   <si>
-    <t>Wu Wang</t>
-  </si>
-  <si>
     <t>232565</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
+    <t>HILBERT</t>
+  </si>
+  <si>
+    <t>TAO</t>
+  </si>
+  <si>
+    <t>ZHANG</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>RIEMANN</t>
+  </si>
+  <si>
+    <t>WANG</t>
+  </si>
+  <si>
+    <t>WORLD</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>wu wang</t>
+  </si>
+  <si>
+    <t>terence tao</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -559,42 +559,125 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f>Output!E1</f>
-        <v>T1</v>
+        <f>IF(ISBLANK(Output!E1), "", Output!E1)</f>
+        <v>Q1</v>
       </c>
       <c r="F1" s="1" t="str">
-        <f>Output!F1</f>
-        <v>T2</v>
+        <f>IF(ISBLANK(Output!F1), "", Output!F1)</f>
+        <v>Q2</v>
       </c>
       <c r="G1" s="1" t="str">
-        <f>Output!G1</f>
-        <v>T3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(Output!G1), "", Output!G1)</f>
+        <v/>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>IF(ISBLANK(Output!H1), "", Output!H1)</f>
+        <v/>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>IF(ISBLANK(Output!I1), "", Output!I1)</f>
+        <v/>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>IF(ISBLANK(Output!J1), "", Output!J1)</f>
+        <v/>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>IF(ISBLANK(Output!K1), "", Output!K1)</f>
+        <v/>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>IF(ISBLANK(Output!L1), "", Output!L1)</f>
+        <v/>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f>IF(ISBLANK(Output!M1), "", Output!M1)</f>
+        <v/>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f>IF(ISBLANK(Output!N1), "", Output!N1)</f>
+        <v/>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f>IF(ISBLANK(Output!O1), "", Output!O1)</f>
+        <v/>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f>IF(ISBLANK(Output!P1), "", Output!P1)</f>
+        <v/>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f>IF(ISBLANK(Output!Q1), "", Output!Q1)</f>
+        <v/>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f>IF(ISBLANK(Output!R1), "", Output!R1)</f>
+        <v/>
+      </c>
+      <c r="S1" s="1" t="str">
+        <f>IF(ISBLANK(Output!S1), "", Output!S1)</f>
+        <v/>
+      </c>
+      <c r="T1" s="1" t="str">
+        <f>IF(ISBLANK(Output!T1), "", Output!T1)</f>
+        <v/>
+      </c>
+      <c r="U1" s="1" t="str">
+        <f>IF(ISBLANK(Output!U1), "", Output!U1)</f>
+        <v/>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f>IF(ISBLANK(Output!V1), "", Output!V1)</f>
+        <v/>
+      </c>
+      <c r="W1" s="1" t="str">
+        <f>IF(ISBLANK(Output!W1), "", Output!W1)</f>
+        <v/>
+      </c>
+      <c r="X1" s="1" t="str">
+        <f>IF(ISBLANK(Output!X1), "", Output!X1)</f>
+        <v/>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <f>IF(ISBLANK(Output!Y1), "", Output!Y1)</f>
+        <v/>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <f>IF(ISBLANK(Output!Z1), "", Output!Z1)</f>
+        <v/>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AA1), "", Output!AA1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>IF(ISBLANK(Input!D2), Input!C2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D2,Name2SID!D:D,0)))</f>
         <v>1155000001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A2,Name2SID!A:A,0))</f>
-        <v>David Hilbert</v>
+        <v>David HILBERT</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>IF(ISBLANK(Input!D3), Input!C3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D3,Name2SID!D:D,0)))</f>
         <v>1155989565</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A3,Name2SID!A:A,0))</f>
-        <v>Leonhard Euler</v>
+        <v>Leonhard EULER</v>
       </c>
       <c r="C3" s="3">
         <v>989565</v>
@@ -602,59 +685,71 @@
       <c r="E3" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f>IF(ISBLANK(Input!D4), Input!C4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D4,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A4,Name2SID!A:A,0))</f>
-        <v>Terence Tao</v>
+        <v>Terence TAO</v>
       </c>
       <c r="C4" s="3">
         <v>141566</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>IF(ISBLANK(Input!D5), Input!C5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D5,Name2SID!D:D,0)))</f>
         <v>1155565651</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A5,Name2SID!A:A,0))</f>
-        <v>Bernhard Riemann</v>
+        <v>Bernhard RIEMANN</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>IF(ISBLANK(Input!D6), Input!C6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D6,Name2SID!D:D,0)))</f>
         <v>1155123456</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A6,Name2SID!A:A,0))</f>
-        <v>San Zhang</v>
+        <v>San ZHANG</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>IF(ISBLANK(Input!D7), Input!C7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D7,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -666,8 +761,11 @@
       <c r="E7" s="1">
         <v>-132</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>IF(ISBLANK(Input!D8), Input!C8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D8,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -677,7 +775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>IF(ISBLANK(Input!D9), Input!C9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D9,Name2SID!D:D,0)))</f>
         <v>1155232565</v>
@@ -687,26 +785,29 @@
         <v>#N/A</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f>IF(ISBLANK(Input!D10), Input!C10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D10,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A10,Name2SID!A:A,0))</f>
-        <v>Terence Tao</v>
+        <v>Terence TAO</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>IF(ISBLANK(Input!D11), Input!C11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D11,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -716,40 +817,46 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>IF(ISBLANK(Input!D12), Input!C12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D12,Name2SID!D:D,0)))</f>
         <v>1155123656</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A12,Name2SID!A:A,0))</f>
-        <v>Wu Wang</v>
+        <v>Wu WANG</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>-26323</v>
       </c>
+      <c r="F12" s="1">
+        <v>202</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f>IF(ISBLANK(Input!D13), Input!C13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D13,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A13,Name2SID!A:A,0))</f>
-        <v>Hello World</v>
+        <v>Hello WORLD</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>IF(ISBLANK(Input!D14), Input!C14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D14,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -759,7 +866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f>IF(ISBLANK(Input!D15), Input!C15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D15,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -769,7 +876,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>IF(ISBLANK(Input!D16), Input!C16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D16,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -987,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1107,12 @@
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="8" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1017,16 +1126,33 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>Name2SID!A2</f>
         <v>1155000001</v>
@@ -1037,19 +1163,42 @@
       </c>
       <c r="C2" s="1" t="str">
         <f>Name2SID!B2</f>
-        <v>Hilbert</v>
+        <v>HILBERT</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>Name2SID!C2</f>
         <v>David</v>
       </c>
       <c r="E2" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A2,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A2,Input!$A:$A,0)))</f>
         <v>100</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A2,Input!$A:$A,0)))</f>
+        <v>23</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>Name2SID!A3</f>
         <v>1155111111</v>
@@ -1060,18 +1209,42 @@
       </c>
       <c r="C3" s="1" t="str">
         <f>Name2SID!B3</f>
-        <v>Tao</v>
+        <v>TAO</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>Name2SID!C3</f>
         <v>Terence</v>
       </c>
       <c r="E3" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A3,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A3,Input!$A:$A,0)))</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A3,Input!$A:$A,0)))</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Name2SID!A4</f>
         <v>1155123456</v>
@@ -1082,18 +1255,42 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>Name2SID!B4</f>
-        <v>Zhang</v>
+        <v>ZHANG</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>Name2SID!C4</f>
         <v>San</v>
       </c>
       <c r="E4" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A4,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0)))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0)))</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>Name2SID!A5</f>
         <v>1155566202</v>
@@ -1104,18 +1301,42 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>Name2SID!B5</f>
-        <v>Li</v>
+        <v>LI</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>Name2SID!C5</f>
         <v>Si</v>
       </c>
       <c r="E5" s="1" t="e">
-        <f>INDEX(Input!E:E,MATCH(Output!A5,Input!A:A,0))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A5,Input!$A:$A,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="1" t="e">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A5,Input!$A:$A,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>Name2SID!A6</f>
         <v>1155989565</v>
@@ -1126,18 +1347,42 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>Name2SID!B6</f>
-        <v>Euler</v>
+        <v>EULER</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>Name2SID!C6</f>
         <v>Leonhard</v>
       </c>
       <c r="E6" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A6,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0)))</f>
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0)))</f>
+        <v>13</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>Name2SID!A7</f>
         <v>1155565651</v>
@@ -1148,18 +1393,42 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>Name2SID!B7</f>
-        <v>Riemann</v>
+        <v>RIEMANN</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>Name2SID!C7</f>
         <v>Bernhard</v>
       </c>
       <c r="E7" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A7,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A7,Input!$A:$A,0)))</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A7,Input!$A:$A,0)))</f>
+        <v>22</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>Name2SID!A8</f>
         <v>1155123656</v>
@@ -1170,18 +1439,42 @@
       </c>
       <c r="C8" s="1" t="str">
         <f>Name2SID!B8</f>
-        <v>Wang</v>
+        <v>WANG</v>
       </c>
       <c r="D8" s="1" t="str">
         <f>Name2SID!C8</f>
         <v>Wu</v>
       </c>
       <c r="E8" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A8,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A8,Input!$A:$A,0)))</f>
         <v>-26323</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A8,Input!$A:$A,0)))</f>
+        <v>202</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>Name2SID!A9</f>
         <v>1155232898</v>
@@ -1192,16 +1485,40 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>Name2SID!B9</f>
-        <v>World</v>
+        <v>WORLD</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>Name2SID!C9</f>
         <v>Hello</v>
       </c>
       <c r="E9" s="1">
-        <f>INDEX(Input!E:E,MATCH(Output!A9,Input!A:A,0))</f>
+        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A9,Input!$A:$A,0)))</f>
         <v>132</v>
       </c>
+      <c r="F9" s="1">
+        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A9,Input!$A:$A,0)))</f>
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B7"/>
@@ -1228,7 +1545,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1581,7 @@
       </c>
       <c r="B2" s="1" t="str">
         <f>RawList!A2</f>
-        <v>Hilbert</v>
+        <v>HILBERT</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>RawList!B2</f>
@@ -1272,7 +1589,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>CONCATENATE(C2," ",B2)</f>
-        <v>David Hilbert</v>
+        <v>David HILBERT</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D2)</f>
@@ -1286,7 +1603,7 @@
       </c>
       <c r="B3" s="1" t="str">
         <f>RawList!A3</f>
-        <v>Tao</v>
+        <v>TAO</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>RawList!B3</f>
@@ -1294,7 +1611,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D8" si="0">CONCATENATE(C3," ",B3)</f>
-        <v>Terence Tao</v>
+        <v>Terence TAO</v>
       </c>
       <c r="E3" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D3)</f>
@@ -1308,7 +1625,7 @@
       </c>
       <c r="B4" s="1" t="str">
         <f>RawList!A4</f>
-        <v>Zhang</v>
+        <v>ZHANG</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>RawList!B4</f>
@@ -1316,7 +1633,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>San Zhang</v>
+        <v>San ZHANG</v>
       </c>
       <c r="E4" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D4)</f>
@@ -1330,7 +1647,7 @@
       </c>
       <c r="B5" s="1" t="str">
         <f>RawList!A5</f>
-        <v>Li</v>
+        <v>LI</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>RawList!B5</f>
@@ -1338,7 +1655,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Si Li</v>
+        <v>Si LI</v>
       </c>
       <c r="E5" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D5)</f>
@@ -1352,7 +1669,7 @@
       </c>
       <c r="B6" s="1" t="str">
         <f>RawList!A6</f>
-        <v>Euler</v>
+        <v>EULER</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>RawList!B6</f>
@@ -1360,7 +1677,7 @@
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Leonhard Euler</v>
+        <v>Leonhard EULER</v>
       </c>
       <c r="E6" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D6)</f>
@@ -1374,7 +1691,7 @@
       </c>
       <c r="B7" s="1" t="str">
         <f>RawList!A7</f>
-        <v>Riemann</v>
+        <v>RIEMANN</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>RawList!B7</f>
@@ -1382,7 +1699,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Bernhard Riemann</v>
+        <v>Bernhard RIEMANN</v>
       </c>
       <c r="E7" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D7)</f>
@@ -1396,7 +1713,7 @@
       </c>
       <c r="B8" s="1" t="str">
         <f>RawList!A8</f>
-        <v>Wang</v>
+        <v>WANG</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>RawList!B8</f>
@@ -1404,7 +1721,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Wu Wang</v>
+        <v>Wu WANG</v>
       </c>
       <c r="E8" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D8)</f>
@@ -1418,15 +1735,15 @@
       </c>
       <c r="B9" s="1" t="str">
         <f>RawList!A9</f>
-        <v>World</v>
+        <v>WORLD</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>RawList!B9</f>
         <v>Hello</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D12" si="1">CONCATENATE(C9," ",B9)</f>
-        <v>Hello World</v>
+        <f t="shared" ref="D9" si="1">CONCATENATE(C9," ",B9)</f>
+        <v>Hello WORLD</v>
       </c>
       <c r="E9" s="1">
         <f>COUNTIF(Name2SID!D:D,Name2SID!D9)</f>
@@ -1453,7 +1770,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,10 +1806,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1155000001</v>
@@ -1509,10 +1826,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>1155111111</v>
@@ -1529,10 +1846,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>1155123456</v>
@@ -1549,10 +1866,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>1155566202</v>
@@ -1569,10 +1886,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1155989565</v>
@@ -1589,10 +1906,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>1155565651</v>
@@ -1609,10 +1926,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>1155123656</v>
@@ -1629,10 +1946,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>1155232898</v>
@@ -1653,15 +1970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EA8EFF7603AD4589909F2D6CDAEF87" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1204792ee41e8d2f815be72486018407">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e3cef67-c514-4257-80f7-3488369f6876" xmlns:ns4="3ef59f0b-425e-41d0-9729-9f55f01e369c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d365b7dfa1eb6cee661573828196401b" ns3:_="" ns4:_="">
     <xsd:import namespace="8e3cef67-c514-4257-80f7-3488369f6876"/>
@@ -1884,6 +2192,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1891,14 +2208,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B987F8-BB67-4BF3-87FF-552DF7D9BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1913,6 +2222,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TA/InputGrades.xlsx
+++ b/TA/InputGrades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Yes</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>Hello WORLD</t>
   </si>
 </sst>
 </file>
@@ -203,6 +206,16 @@
   <dxfs count="5">
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -218,16 +231,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -529,16 +532,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -552,11 +555,11 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="str">
         <f>IF(ISBLANK(Output!E1), "", Output!E1)</f>
@@ -653,14 +656,14 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <f>IF(ISBLANK(Input!D2), Input!C2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D2,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C2), Input!D2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C2,Name2SID!D:D,0)))</f>
         <v>1155000001</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A2,Name2SID!A:A,0))</f>
         <v>David HILBERT</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1">
@@ -672,14 +675,14 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>IF(ISBLANK(Input!D3), Input!C3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D3,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C3), Input!D3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C3,Name2SID!D:D,0)))</f>
         <v>1155989565</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A3,Name2SID!A:A,0))</f>
         <v>Leonhard EULER</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>989565</v>
       </c>
       <c r="E3" s="1">
@@ -691,18 +694,18 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>IF(ISBLANK(Input!D4), Input!C4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D4,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C4), Input!D4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C4,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A4,Name2SID!A:A,0))</f>
         <v>Terence TAO</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
         <v>141566</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>25</v>
@@ -713,14 +716,14 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>IF(ISBLANK(Input!D5), Input!C5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D5,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C5), Input!D5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C5,Name2SID!D:D,0)))</f>
         <v>1155565651</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A5,Name2SID!A:A,0))</f>
         <v>Bernhard RIEMANN</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1">
@@ -732,14 +735,14 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>IF(ISBLANK(Input!D6), Input!C6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D6,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C6), Input!D6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C6,Name2SID!D:D,0)))</f>
         <v>1155123456</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A6,Name2SID!A:A,0))</f>
         <v>San ZHANG</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1">
@@ -751,7 +754,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>IF(ISBLANK(Input!D7), Input!C7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D7,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C7), Input!D7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C7,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B7" s="1" t="e">
@@ -767,7 +770,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>IF(ISBLANK(Input!D8), Input!C8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D8,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C8), Input!D8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C8,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B8" s="1" t="e">
@@ -777,27 +780,27 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>IF(ISBLANK(Input!D9), Input!C9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D9,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C9), Input!D9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C9,Name2SID!D:D,0)))</f>
         <v>1155232565</v>
       </c>
       <c r="B9" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A9,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f>IF(ISBLANK(Input!D10), Input!C10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D10,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C10), Input!D10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C10,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A10,Name2SID!A:A,0))</f>
         <v>Terence TAO</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="1">
@@ -809,7 +812,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f>IF(ISBLANK(Input!D11), Input!C11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D11,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C11), Input!D11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C11,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B11" s="1" t="e">
@@ -819,14 +822,14 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>IF(ISBLANK(Input!D12), Input!C12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D12,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C12), Input!D12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C12,Name2SID!D:D,0)))</f>
         <v>1155123656</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A12,Name2SID!A:A,0))</f>
         <v>Wu WANG</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1">
@@ -839,14 +842,14 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>IF(ISBLANK(Input!D13), Input!C13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D13,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C13), Input!D13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C13,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A13,Name2SID!A:A,0))</f>
         <v>Hello WORLD</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="1">
@@ -858,17 +861,26 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>IF(ISBLANK(Input!D14), Input!C14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D14,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
-      </c>
-      <c r="B14" s="1" t="e">
+        <f>IF(ISBLANK(Input!C14), Input!D14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C14,Name2SID!D:D,0)))</f>
+        <v>1155232898</v>
+      </c>
+      <c r="B14" s="1" t="str">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A14,Name2SID!A:A,0))</f>
-        <v>#N/A</v>
+        <v>Hello WORLD</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1">
+        <v>232</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>IF(ISBLANK(Input!D15), Input!C15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D15,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C15), Input!D15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C15,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B15" s="1" t="e">
@@ -878,7 +890,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>IF(ISBLANK(Input!D16), Input!C16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D16,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C16), Input!D16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C16,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B16" s="1" t="e">
@@ -888,7 +900,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>IF(ISBLANK(Input!D17), Input!C17 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D17,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C17), Input!D17 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C17,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B17" s="1" t="e">
@@ -898,7 +910,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>IF(ISBLANK(Input!D18), Input!C18 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D18,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C18), Input!D18 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C18,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B18" s="1" t="e">
@@ -908,7 +920,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>IF(ISBLANK(Input!D19), Input!C19 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D19,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C19), Input!D19 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C19,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B19" s="1" t="e">
@@ -918,7 +930,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>IF(ISBLANK(Input!D20), Input!C20 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D20,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C20), Input!D20 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C20,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B20" s="1" t="e">
@@ -928,7 +940,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>IF(ISBLANK(Input!D21), Input!C21 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D21,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C21), Input!D21 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C21,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B21" s="1" t="e">
@@ -938,7 +950,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>IF(ISBLANK(Input!D22), Input!C22 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D22,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C22), Input!D22 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C22,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B22" s="1" t="e">
@@ -948,7 +960,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f>IF(ISBLANK(Input!D23), Input!C23 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D23,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C23), Input!D23 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C23,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B23" s="1" t="e">
@@ -958,7 +970,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>IF(ISBLANK(Input!D24), Input!C24 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D24,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C24), Input!D24 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C24,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B24" s="1" t="e">
@@ -968,7 +980,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>IF(ISBLANK(Input!D25), Input!C25 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D25,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C25), Input!D25 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C25,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B25" s="1" t="e">
@@ -978,7 +990,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>IF(ISBLANK(Input!D26), Input!C26 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D26,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C26), Input!D26 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C26,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B26" s="1" t="e">
@@ -988,7 +1000,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f>IF(ISBLANK(Input!D27), Input!C27 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D27,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C27), Input!D27 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C27,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B27" s="1" t="e">
@@ -998,7 +1010,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f>IF(ISBLANK(Input!D28), Input!C28 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D28,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C28), Input!D28 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C28,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B28" s="1" t="e">
@@ -1008,7 +1020,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f>IF(ISBLANK(Input!D29), Input!C29 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D29,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C29), Input!D29 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C29,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B29" s="1" t="e">
@@ -1018,7 +1030,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f>IF(ISBLANK(Input!D30), Input!C30 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D30,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C30), Input!D30 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C30,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B30" s="1" t="e">
@@ -1028,7 +1040,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f>IF(ISBLANK(Input!D31), Input!C31 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D31,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C31), Input!D31 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C31,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B31" s="1" t="e">
@@ -1038,7 +1050,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f>IF(ISBLANK(Input!D32), Input!C32 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D32,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C32), Input!D32 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C32,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B32" s="1" t="e">
@@ -1048,7 +1060,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f>IF(ISBLANK(Input!D33), Input!C33 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D33,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C33), Input!D33 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C33,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B33" s="1" t="e">
@@ -1058,7 +1070,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f>IF(ISBLANK(Input!D34), Input!C34 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D34,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C34), Input!D34 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C34,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B34" s="1" t="e">
@@ -1068,7 +1080,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f>IF(ISBLANK(Input!D35), Input!C35 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D35,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C35), Input!D35 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C35,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B35" s="1" t="e">
@@ -1078,7 +1090,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f>IF(ISBLANK(Input!D36), Input!C36 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!D36,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C36), Input!D36 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C36,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
       <c r="B36" s="1" t="e">
@@ -1094,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1119,7 @@
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1481,7 +1493,7 @@
       </c>
       <c r="B9" s="1">
         <f>COUNTIF(Input!A:A,Output!A9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>Name2SID!B9</f>
@@ -1520,18 +1532,252 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B7"/>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1545,7 +1791,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,12 +1998,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E958">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E2:E957">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1769,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,6 +2216,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EA8EFF7603AD4589909F2D6CDAEF87" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1204792ee41e8d2f815be72486018407">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e3cef67-c514-4257-80f7-3488369f6876" xmlns:ns4="3ef59f0b-425e-41d0-9729-9f55f01e369c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d365b7dfa1eb6cee661573828196401b" ns3:_="" ns4:_="">
     <xsd:import namespace="8e3cef67-c514-4257-80f7-3488369f6876"/>
@@ -2192,22 +2453,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
+    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B987F8-BB67-4BF3-87FF-552DF7D9BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2224,29 +2495,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
-    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TA/InputGrades.xlsx
+++ b/TA/InputGrades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Last Access</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Student ID</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
   <si>
     <t>First Name</t>
@@ -182,12 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -206,16 +191,6 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -231,6 +206,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -532,16 +517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -549,17 +534,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+      <c r="A1" s="4" t="str">
+        <f>Name2SID!A1</f>
+        <v>Student ID</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>Name2SID!D1</f>
+        <v>Full Name</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="str">
         <f>IF(ISBLANK(Output!E1), "", Output!E1)</f>
@@ -655,7 +642,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <f>IF(ISBLANK(Input!C2), Input!D2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C2,Name2SID!D:D,0)))</f>
         <v>1155000001</v>
       </c>
@@ -664,7 +651,7 @@
         <v>David HILBERT</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>100</v>
@@ -674,7 +661,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <f>IF(ISBLANK(Input!C3), Input!D3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C3,Name2SID!D:D,0)))</f>
         <v>1155989565</v>
       </c>
@@ -682,18 +669,18 @@
         <f>INDEX(Name2SID!D:D,MATCH(Input!A3,Name2SID!A:A,0))</f>
         <v>Leonhard EULER</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>989565</v>
       </c>
       <c r="E3" s="1">
         <v>99</v>
       </c>
       <c r="F3" s="1">
-        <v>13</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f>IF(ISBLANK(Input!C4), Input!D4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C4,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
@@ -702,20 +689,20 @@
         <v>Terence TAO</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
         <v>141566</v>
       </c>
       <c r="E4" s="1">
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>18</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f>IF(ISBLANK(Input!C5), Input!D5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C5,Name2SID!D:D,0)))</f>
         <v>1155565651</v>
       </c>
@@ -724,17 +711,17 @@
         <v>Bernhard RIEMANN</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f>IF(ISBLANK(Input!C6), Input!D6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C6,Name2SID!D:D,0)))</f>
         <v>1155123456</v>
       </c>
@@ -742,18 +729,18 @@
         <f>INDEX(Name2SID!D:D,MATCH(Input!A6,Name2SID!A:A,0))</f>
         <v>San ZHANG</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f>IF(ISBLANK(Input!C7), Input!D7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C7,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -765,11 +752,11 @@
         <v>-132</v>
       </c>
       <c r="F7" s="1">
-        <v>985</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f>IF(ISBLANK(Input!C8), Input!D8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C8,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -779,7 +766,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f>IF(ISBLANK(Input!C9), Input!D9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C9,Name2SID!D:D,0)))</f>
         <v>1155232565</v>
       </c>
@@ -787,12 +774,12 @@
         <f>INDEX(Name2SID!D:D,MATCH(Input!A9,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f>IF(ISBLANK(Input!C10), Input!D10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C10,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
@@ -801,17 +788,17 @@
         <v>Terence TAO</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1">
         <v>232</v>
       </c>
       <c r="F10" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f>IF(ISBLANK(Input!C11), Input!D11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C11,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -821,7 +808,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f>IF(ISBLANK(Input!C12), Input!D12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C12,Name2SID!D:D,0)))</f>
         <v>1155123656</v>
       </c>
@@ -830,18 +817,18 @@
         <v>Wu WANG</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>-26323</v>
       </c>
       <c r="F12" s="1">
-        <v>202</v>
-      </c>
-      <c r="K12" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f>IF(ISBLANK(Input!C13), Input!D13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C13,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
@@ -850,17 +837,17 @@
         <v>Hello WORLD</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>132</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f>IF(ISBLANK(Input!C14), Input!D14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C14,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
@@ -869,17 +856,17 @@
         <v>Hello WORLD</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>232</v>
       </c>
       <c r="F14" s="1">
-        <v>12</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <f>IF(ISBLANK(Input!C15), Input!D15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C15,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -889,7 +876,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f>IF(ISBLANK(Input!C16), Input!D16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C16,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -899,7 +886,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f>IF(ISBLANK(Input!C17), Input!D17 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C17,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -909,7 +896,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f>IF(ISBLANK(Input!C18), Input!D18 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C18,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -919,7 +906,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <f>IF(ISBLANK(Input!C19), Input!D19 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C19,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -929,7 +916,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f>IF(ISBLANK(Input!C20), Input!D20 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C20,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -939,7 +926,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <f>IF(ISBLANK(Input!C21), Input!D21 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C21,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -949,7 +936,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f>IF(ISBLANK(Input!C22), Input!D22 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C22,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -959,7 +946,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f>IF(ISBLANK(Input!C23), Input!D23 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C23,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -969,7 +956,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <f>IF(ISBLANK(Input!C24), Input!D24 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C24,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -979,7 +966,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <f>IF(ISBLANK(Input!C25), Input!D25 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C25,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -989,7 +976,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f>IF(ISBLANK(Input!C26), Input!D26 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C26,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -999,7 +986,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <f>IF(ISBLANK(Input!C27), Input!D27 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C27,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1009,7 +996,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <f>IF(ISBLANK(Input!C28), Input!D28 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C28,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1019,7 +1006,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f>IF(ISBLANK(Input!C29), Input!D29 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C29,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1029,7 +1016,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f>IF(ISBLANK(Input!C30), Input!D30 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C30,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1039,7 +1026,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <f>IF(ISBLANK(Input!C31), Input!D31 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C31,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1049,7 +1036,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <f>IF(ISBLANK(Input!C32), Input!D32 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C32,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1059,7 +1046,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <f>IF(ISBLANK(Input!C33), Input!D33 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C33,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1069,7 +1056,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <f>IF(ISBLANK(Input!C34), Input!D34 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C34,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1079,7 +1066,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <f>IF(ISBLANK(Input!C35), Input!D35 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C35,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1089,7 +1076,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <f>IF(ISBLANK(Input!C36), Input!D36 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C36,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
       </c>
@@ -1109,7 +1096,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,30 +1105,33 @@
     <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1" t="str">
+        <f>Name2SID!A1</f>
+        <v>Student ID</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="C1" s="1" t="str">
+        <f>Name2SID!B1</f>
+        <v>Last Name</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>Name2SID!C1</f>
+        <v>First Name</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1233,7 +1223,7 @@
       </c>
       <c r="F3" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A3,Input!$A:$A,0)))</f>
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1279,7 +1269,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0)))</f>
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1371,7 +1361,7 @@
       </c>
       <c r="F6" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0)))</f>
-        <v>13</v>
+        <v>-22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1417,7 +1407,7 @@
       </c>
       <c r="F7" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A7,Input!$A:$A,0)))</f>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1463,7 +1453,7 @@
       </c>
       <c r="F8" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A8,Input!$A:$A,0)))</f>
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1509,7 +1499,7 @@
       </c>
       <c r="F9" s="1">
         <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A9,Input!$A:$A,0)))</f>
-        <v>12</v>
+        <v>1.032</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1538,6 +1528,7 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
+      <c r="F10"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1551,6 +1542,7 @@
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
+      <c r="F11"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1564,6 +1556,7 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
+      <c r="F12"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1577,6 +1570,7 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
+      <c r="F13"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1590,6 +1584,7 @@
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
+      <c r="F14"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1603,6 +1598,7 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
+      <c r="F15"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1616,6 +1612,7 @@
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
+      <c r="F16"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1629,6 +1626,7 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
+      <c r="F17"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1642,6 +1640,7 @@
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
+      <c r="F18"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1655,6 +1654,7 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
+      <c r="F19"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1668,6 +1668,7 @@
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
+      <c r="F20"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1681,6 +1682,7 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
+      <c r="F21"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -1694,6 +1696,7 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
+      <c r="F22"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -1707,6 +1710,7 @@
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
+      <c r="F23"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
@@ -1720,6 +1724,7 @@
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
+      <c r="F24"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -1733,6 +1738,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
+      <c r="F25"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -1746,6 +1752,7 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
+      <c r="F26"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -1759,6 +1766,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
+      <c r="F27"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -1769,15 +1777,15 @@
   </sheetData>
   <autoFilter ref="B1:B7"/>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1791,7 +1799,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,25 +1812,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="1" t="str">
+        <f>RawList!$C$1</f>
+        <v>Student ID</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>RawList!$A$1</f>
+        <v>Last Name</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>RawList!$B$1</f>
+        <v>First Name</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>RawList!D2</f>
+        <f>RawList!C2</f>
         <v>1155000001</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -1844,7 +1855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>RawList!D3</f>
+        <f>RawList!C3</f>
         <v>1155111111</v>
       </c>
       <c r="B3" s="1" t="str">
@@ -1856,7 +1867,7 @@
         <v>Terence</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D8" si="0">CONCATENATE(C3," ",B3)</f>
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3," ",B3)</f>
         <v>Terence TAO</v>
       </c>
       <c r="E3" s="1">
@@ -1866,7 +1877,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>RawList!D4</f>
+        <f>RawList!C4</f>
         <v>1155123456</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -1888,7 +1899,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>RawList!D5</f>
+        <f>RawList!C5</f>
         <v>1155566202</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -1900,7 +1911,7 @@
         <v>Si</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D16" si="1">CONCATENATE(C5," ",B5)</f>
         <v>Si LI</v>
       </c>
       <c r="E5" s="1">
@@ -1910,7 +1921,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>RawList!D6</f>
+        <f>RawList!C6</f>
         <v>1155989565</v>
       </c>
       <c r="B6" s="1" t="str">
@@ -1922,7 +1933,7 @@
         <v>Leonhard</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Leonhard EULER</v>
       </c>
       <c r="E6" s="1">
@@ -1932,7 +1943,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>RawList!D7</f>
+        <f>RawList!C7</f>
         <v>1155565651</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -1944,7 +1955,7 @@
         <v>Bernhard</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Bernhard RIEMANN</v>
       </c>
       <c r="E7" s="1">
@@ -1954,7 +1965,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>RawList!D8</f>
+        <f>RawList!C8</f>
         <v>1155123656</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -1966,7 +1977,7 @@
         <v>Wu</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Wu WANG</v>
       </c>
       <c r="E8" s="1">
@@ -1976,7 +1987,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>RawList!D9</f>
+        <f>RawList!C9</f>
         <v>1155232898</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -1988,7 +1999,7 @@
         <v>Hello</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9" si="1">CONCATENATE(C9," ",B9)</f>
+        <f t="shared" si="1"/>
         <v>Hello WORLD</v>
       </c>
       <c r="E9" s="1">
@@ -1998,12 +2009,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E957">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E2:E955">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2013,9 +2024,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2023,191 +2034,107 @@
   <cols>
     <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1155000001</v>
       </c>
-      <c r="D2" s="1">
-        <v>1155000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44317.754710648151</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>1155111111</v>
       </c>
-      <c r="D3" s="1">
-        <v>1155111111</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44318.945729166669</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1155123456</v>
       </c>
-      <c r="D4" s="1">
-        <v>1155123456</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44319.469305555554</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1155566202</v>
       </c>
-      <c r="D5" s="1">
-        <v>1155566202</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44322.364768518521</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1155989565</v>
       </c>
-      <c r="D6" s="1">
-        <v>1155989565</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44317.596377314818</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>1155565651</v>
       </c>
-      <c r="D7" s="1">
-        <v>1155565651</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44319.531793981485</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>1155123656</v>
       </c>
-      <c r="D8" s="1">
-        <v>1155123656</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44320.531793981485</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>1155232898</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1155232898</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44321.531793981485</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2216,21 +2143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EA8EFF7603AD4589909F2D6CDAEF87" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1204792ee41e8d2f815be72486018407">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e3cef67-c514-4257-80f7-3488369f6876" xmlns:ns4="3ef59f0b-425e-41d0-9729-9f55f01e369c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d365b7dfa1eb6cee661573828196401b" ns3:_="" ns4:_="">
     <xsd:import namespace="8e3cef67-c514-4257-80f7-3488369f6876"/>
@@ -2453,32 +2365,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
-    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B987F8-BB67-4BF3-87FF-552DF7D9BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2495,4 +2397,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
+    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TA/InputGrades.xlsx
+++ b/TA/InputGrades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Student ID</t>
   </si>
@@ -134,7 +134,10 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Hello WORLD</t>
+    <t>Have a good day!</t>
+  </si>
+  <si>
+    <t>HELLO WORLD</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:CN36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>Name2SID!A1</f>
         <v>Student ID</v>
@@ -640,8 +643,268 @@
         <f>IF(ISBLANK(Output!AA1), "", Output!AA1)</f>
         <v/>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AB1), "", Output!AB1)</f>
+        <v/>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AC1), "", Output!AC1)</f>
+        <v/>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AD1), "", Output!AD1)</f>
+        <v/>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AE1), "", Output!AE1)</f>
+        <v/>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AF1), "", Output!AF1)</f>
+        <v/>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AG1), "", Output!AG1)</f>
+        <v/>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AH1), "", Output!AH1)</f>
+        <v/>
+      </c>
+      <c r="AI1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AI1), "", Output!AI1)</f>
+        <v/>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AJ1), "", Output!AJ1)</f>
+        <v/>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AK1), "", Output!AK1)</f>
+        <v/>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AL1), "", Output!AL1)</f>
+        <v/>
+      </c>
+      <c r="AM1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AM1), "", Output!AM1)</f>
+        <v/>
+      </c>
+      <c r="AN1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AN1), "", Output!AN1)</f>
+        <v/>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AO1), "", Output!AO1)</f>
+        <v/>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AP1), "", Output!AP1)</f>
+        <v/>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AQ1), "", Output!AQ1)</f>
+        <v/>
+      </c>
+      <c r="AR1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AR1), "", Output!AR1)</f>
+        <v/>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AS1), "", Output!AS1)</f>
+        <v/>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AT1), "", Output!AT1)</f>
+        <v/>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AU1), "", Output!AU1)</f>
+        <v/>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AV1), "", Output!AV1)</f>
+        <v/>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AW1), "", Output!AW1)</f>
+        <v/>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AX1), "", Output!AX1)</f>
+        <v/>
+      </c>
+      <c r="AY1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AY1), "", Output!AY1)</f>
+        <v/>
+      </c>
+      <c r="AZ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!AZ1), "", Output!AZ1)</f>
+        <v/>
+      </c>
+      <c r="BA1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BA1), "", Output!BA1)</f>
+        <v/>
+      </c>
+      <c r="BB1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BB1), "", Output!BB1)</f>
+        <v/>
+      </c>
+      <c r="BC1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BC1), "", Output!BC1)</f>
+        <v/>
+      </c>
+      <c r="BD1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BD1), "", Output!BD1)</f>
+        <v/>
+      </c>
+      <c r="BE1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BE1), "", Output!BE1)</f>
+        <v/>
+      </c>
+      <c r="BF1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BF1), "", Output!BF1)</f>
+        <v/>
+      </c>
+      <c r="BG1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BG1), "", Output!BG1)</f>
+        <v/>
+      </c>
+      <c r="BH1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BH1), "", Output!BH1)</f>
+        <v/>
+      </c>
+      <c r="BI1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BI1), "", Output!BI1)</f>
+        <v/>
+      </c>
+      <c r="BJ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BJ1), "", Output!BJ1)</f>
+        <v/>
+      </c>
+      <c r="BK1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BK1), "", Output!BK1)</f>
+        <v/>
+      </c>
+      <c r="BL1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BL1), "", Output!BL1)</f>
+        <v/>
+      </c>
+      <c r="BM1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BM1), "", Output!BM1)</f>
+        <v/>
+      </c>
+      <c r="BN1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BN1), "", Output!BN1)</f>
+        <v/>
+      </c>
+      <c r="BO1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BO1), "", Output!BO1)</f>
+        <v/>
+      </c>
+      <c r="BP1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BP1), "", Output!BP1)</f>
+        <v/>
+      </c>
+      <c r="BQ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BQ1), "", Output!BQ1)</f>
+        <v/>
+      </c>
+      <c r="BR1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BR1), "", Output!BR1)</f>
+        <v/>
+      </c>
+      <c r="BS1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BS1), "", Output!BS1)</f>
+        <v/>
+      </c>
+      <c r="BT1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BT1), "", Output!BT1)</f>
+        <v/>
+      </c>
+      <c r="BU1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BU1), "", Output!BU1)</f>
+        <v/>
+      </c>
+      <c r="BV1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BV1), "", Output!BV1)</f>
+        <v/>
+      </c>
+      <c r="BW1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BW1), "", Output!BW1)</f>
+        <v/>
+      </c>
+      <c r="BX1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BX1), "", Output!BX1)</f>
+        <v/>
+      </c>
+      <c r="BY1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BY1), "", Output!BY1)</f>
+        <v/>
+      </c>
+      <c r="BZ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!BZ1), "", Output!BZ1)</f>
+        <v/>
+      </c>
+      <c r="CA1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CA1), "", Output!CA1)</f>
+        <v/>
+      </c>
+      <c r="CB1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CB1), "", Output!CB1)</f>
+        <v/>
+      </c>
+      <c r="CC1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CC1), "", Output!CC1)</f>
+        <v/>
+      </c>
+      <c r="CD1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CD1), "", Output!CD1)</f>
+        <v/>
+      </c>
+      <c r="CE1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CE1), "", Output!CE1)</f>
+        <v/>
+      </c>
+      <c r="CF1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CF1), "", Output!CF1)</f>
+        <v/>
+      </c>
+      <c r="CG1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CG1), "", Output!CG1)</f>
+        <v/>
+      </c>
+      <c r="CH1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CH1), "", Output!CH1)</f>
+        <v/>
+      </c>
+      <c r="CI1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CI1), "", Output!CI1)</f>
+        <v/>
+      </c>
+      <c r="CJ1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CJ1), "", Output!CJ1)</f>
+        <v/>
+      </c>
+      <c r="CK1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CK1), "", Output!CK1)</f>
+        <v/>
+      </c>
+      <c r="CL1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CL1), "", Output!CL1)</f>
+        <v/>
+      </c>
+      <c r="CM1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CM1), "", Output!CM1)</f>
+        <v/>
+      </c>
+      <c r="CN1" s="1" t="str">
+        <f>IF(ISBLANK(Output!CN1), "", Output!CN1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>IF(ISBLANK(Input!C2), Input!D2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C2,Name2SID!D:D,0)))</f>
         <v>1155000001</v>
@@ -656,11 +919,8 @@
       <c r="E2" s="1">
         <v>100</v>
       </c>
-      <c r="F2" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>IF(ISBLANK(Input!C3), Input!D3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C3,Name2SID!D:D,0)))</f>
         <v>1155989565</v>
@@ -679,7 +939,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f>IF(ISBLANK(Input!C4), Input!D4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C4,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
@@ -701,7 +961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>IF(ISBLANK(Input!C5), Input!D5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C5,Name2SID!D:D,0)))</f>
         <v>1155565651</v>
@@ -720,7 +980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>IF(ISBLANK(Input!C6), Input!D6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C6,Name2SID!D:D,0)))</f>
         <v>1155123456</v>
@@ -739,7 +999,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>IF(ISBLANK(Input!C7), Input!D7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C7,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -755,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f>IF(ISBLANK(Input!C8), Input!D8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C8,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -765,7 +1025,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f>IF(ISBLANK(Input!C9), Input!D9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C9,Name2SID!D:D,0)))</f>
         <v>1155232565</v>
@@ -778,7 +1038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f>IF(ISBLANK(Input!C10), Input!D10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C10,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
@@ -797,7 +1057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f>IF(ISBLANK(Input!C11), Input!D11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C11,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -807,7 +1067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f>IF(ISBLANK(Input!C12), Input!D12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C12,Name2SID!D:D,0)))</f>
         <v>1155123656</v>
@@ -819,15 +1079,12 @@
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1">
-        <v>-26323</v>
-      </c>
       <c r="F12" s="1">
         <v>262</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f>IF(ISBLANK(Input!C13), Input!D13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C13,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
@@ -846,7 +1103,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f>IF(ISBLANK(Input!C14), Input!D14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C14,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
@@ -856,26 +1113,23 @@
         <v>Hello WORLD</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1">
-        <v>232</v>
-      </c>
-      <c r="F14" s="1">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="e">
         <f>IF(ISBLANK(Input!C15), Input!D15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C15,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <v>#N/A</v>
       </c>
       <c r="B15" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A15,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f>IF(ISBLANK(Input!C16), Input!D16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C16,Name2SID!D:D,0)))</f>
         <v>1155000000</v>
@@ -1093,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,13 +1359,12 @@
     <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="25" width="9.140625" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>Name2SID!A1</f>
         <v>Student ID</v>
@@ -1133,8 +1386,6 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1152,9 +1403,8 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>Name2SID!A2</f>
         <v>1155000001</v>
@@ -1172,15 +1422,13 @@
         <v>David</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A2,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A2,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A2,Input!$A:$A,0)))</f>
         <v>100</v>
       </c>
-      <c r="F2" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A2,Input!$A:$A,0)))</f>
-        <v>23</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A2,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A2,Input!$A:$A,0)))</f>
+        <v/>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1198,9 +1446,8 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>Name2SID!A3</f>
         <v>1155111111</v>
@@ -1218,15 +1465,13 @@
         <v>Terence</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A3,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A3,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A3,Input!$A:$A,0)))</f>
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A3,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A3,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A3,Input!$A:$A,0)))</f>
         <v>262</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1244,9 +1489,8 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Name2SID!A4</f>
         <v>1155123456</v>
@@ -1264,15 +1508,13 @@
         <v>San</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0)))</f>
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0)))</f>
         <v>262</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1290,9 +1532,8 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>Name2SID!A5</f>
         <v>1155566202</v>
@@ -1310,15 +1551,13 @@
         <v>Si</v>
       </c>
       <c r="E5" s="1" t="e">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A5,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A5,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A5,Input!$A:$A,0)))</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="1" t="e">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A5,Input!$A:$A,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A5,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A5,Input!$A:$A,0)))</f>
+        <v>#N/A</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1336,9 +1575,8 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>Name2SID!A6</f>
         <v>1155989565</v>
@@ -1356,15 +1594,13 @@
         <v>Leonhard</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0)))</f>
         <v>99</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0)))</f>
         <v>-22</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1382,9 +1618,8 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>Name2SID!A7</f>
         <v>1155565651</v>
@@ -1402,15 +1637,13 @@
         <v>Bernhard</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A7,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A7,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A7,Input!$A:$A,0)))</f>
         <v>100</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A7,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A7,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A7,Input!$A:$A,0)))</f>
         <v>51</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1428,9 +1661,8 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>Name2SID!A8</f>
         <v>1155123656</v>
@@ -1447,16 +1679,14 @@
         <f>Name2SID!C8</f>
         <v>Wu</v>
       </c>
-      <c r="E8" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A8,Input!$A:$A,0)))</f>
-        <v>-26323</v>
+      <c r="E8" s="1" t="str">
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A8,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A8,Input!$A:$A,0)))</f>
+        <v/>
       </c>
       <c r="F8" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A8,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A8,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A8,Input!$A:$A,0)))</f>
         <v>262</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1474,9 +1704,8 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>Name2SID!A9</f>
         <v>1155232898</v>
@@ -1494,15 +1723,13 @@
         <v>Hello</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(ISBLANK(Output!E$1), "", INDEX(Input!E:E,MATCH(Output!$A9,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A9,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A9,Input!$A:$A,0)))</f>
         <v>132</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(ISBLANK(Output!F$1), "", INDEX(Input!F:F,MATCH(Output!$A9,Input!$A:$A,0)))</f>
+        <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A9,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A9,Input!$A:$A,0)))</f>
         <v>1.032</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1520,259 +1747,294 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B7"/>
@@ -1867,7 +2129,7 @@
         <v>Terence</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3," ",B3)</f>
+        <f t="shared" ref="D3:D4" si="0">CONCATENATE(C3," ",B3)</f>
         <v>Terence TAO</v>
       </c>
       <c r="E3" s="1">
@@ -1911,7 +2173,7 @@
         <v>Si</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D16" si="1">CONCATENATE(C5," ",B5)</f>
+        <f t="shared" ref="D5:D9" si="1">CONCATENATE(C5," ",B5)</f>
         <v>Si LI</v>
       </c>
       <c r="E5" s="1">
@@ -2026,7 +2288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2143,6 +2405,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EA8EFF7603AD4589909F2D6CDAEF87" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1204792ee41e8d2f815be72486018407">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e3cef67-c514-4257-80f7-3488369f6876" xmlns:ns4="3ef59f0b-425e-41d0-9729-9f55f01e369c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d365b7dfa1eb6cee661573828196401b" ns3:_="" ns4:_="">
     <xsd:import namespace="8e3cef67-c514-4257-80f7-3488369f6876"/>
@@ -2365,22 +2642,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
+    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B987F8-BB67-4BF3-87FF-552DF7D9BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2397,29 +2684,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
-    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TA/InputGrades.xlsx
+++ b/TA/InputGrades.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\toolkit\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfeng/github/toolkit/TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15436AF1-D2B8-D245-97A4-48D9E8E8DD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -20,10 +21,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$B$1:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,26 +529,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="33.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9.1640625" style="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>Name2SID!A1</f>
         <v>Student ID</v>
@@ -904,9 +916,9 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <f>IF(ISBLANK(Input!C2), Input!D2 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C2,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C2), Input!D2 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C2,Name2SID!D:D,0)))</f>
         <v>1155000001</v>
       </c>
       <c r="B2" s="1" t="str">
@@ -920,14 +932,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f>IF(ISBLANK(Input!C3), Input!D3 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C3,Name2SID!D:D,0)))</f>
-        <v>1155989565</v>
-      </c>
-      <c r="B3" s="1" t="str">
+        <f>IF(ISBLANK(Input!C3), Input!D3 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C3,Name2SID!D:D,0)))</f>
+        <v>1156089565</v>
+      </c>
+      <c r="B3" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A3,Name2SID!A:A,0))</f>
-        <v>Leonhard EULER</v>
+        <v>#N/A</v>
       </c>
       <c r="D3" s="2">
         <v>989565</v>
@@ -939,9 +951,9 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <f>IF(ISBLANK(Input!C4), Input!D4 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C4,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C4), Input!D4 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C4,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B4" s="1" t="str">
@@ -961,9 +973,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f>IF(ISBLANK(Input!C5), Input!D5 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C5,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C5), Input!D5 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C5,Name2SID!D:D,0)))</f>
         <v>1155565651</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -980,14 +992,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f>IF(ISBLANK(Input!C6), Input!D6 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C6,Name2SID!D:D,0)))</f>
-        <v>1155123456</v>
-      </c>
-      <c r="B6" s="1" t="str">
+        <f>IF(ISBLANK(Input!C6), Input!D6 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C6,Name2SID!D:D,0)))</f>
+        <v>1155223456</v>
+      </c>
+      <c r="B6" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A6,Name2SID!A:A,0))</f>
-        <v>San ZHANG</v>
+        <v>#N/A</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -999,10 +1011,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f>IF(ISBLANK(Input!C7), Input!D7 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C7,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C7), Input!D7 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C7,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B7" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A7,Name2SID!A:A,0))</f>
@@ -1015,20 +1027,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f>IF(ISBLANK(Input!C8), Input!D8 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C8,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C8), Input!D8 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C8,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B8" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A8,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f>IF(ISBLANK(Input!C9), Input!D9 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C9,Name2SID!D:D,0)))</f>
-        <v>1155232565</v>
+        <f>IF(ISBLANK(Input!C9), Input!D9 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C9,Name2SID!D:D,0)))</f>
+        <v>1155332565</v>
       </c>
       <c r="B9" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A9,Name2SID!A:A,0))</f>
@@ -1038,9 +1050,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f>IF(ISBLANK(Input!C10), Input!D10 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C10,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C10), Input!D10 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C10,Name2SID!D:D,0)))</f>
         <v>1155111111</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -1057,19 +1069,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f>IF(ISBLANK(Input!C11), Input!D11 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C11,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C11), Input!D11 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C11,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B11" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A11,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f>IF(ISBLANK(Input!C12), Input!D12 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C12,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C12), Input!D12 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C12,Name2SID!D:D,0)))</f>
         <v>1155123656</v>
       </c>
       <c r="B12" s="1" t="str">
@@ -1084,9 +1096,9 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f>IF(ISBLANK(Input!C13), Input!D13 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C13,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C13), Input!D13 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C13,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
       <c r="B13" s="1" t="str">
@@ -1103,9 +1115,9 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f>IF(ISBLANK(Input!C14), Input!D14 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C14,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C14), Input!D14 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C14,Name2SID!D:D,0)))</f>
         <v>1155232898</v>
       </c>
       <c r="B14" s="1" t="str">
@@ -1116,9 +1128,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="e">
-        <f>IF(ISBLANK(Input!C15), Input!D15 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C15,Name2SID!D:D,0)))</f>
+        <f>IF(ISBLANK(Input!C15), Input!D15 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C15,Name2SID!D:D,0)))</f>
         <v>#N/A</v>
       </c>
       <c r="B15" s="1" t="e">
@@ -1129,210 +1141,210 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f>IF(ISBLANK(Input!C16), Input!D16 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C16,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C16), Input!D16 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C16,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B16" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A16,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f>IF(ISBLANK(Input!C17), Input!D17 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C17,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C17), Input!D17 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C17,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B17" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A17,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <f>IF(ISBLANK(Input!C18), Input!D18 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C18,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C18), Input!D18 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C18,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B18" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A18,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <f>IF(ISBLANK(Input!C19), Input!D19 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C19,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C19), Input!D19 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C19,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B19" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A19,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <f>IF(ISBLANK(Input!C20), Input!D20 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C20,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C20), Input!D20 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C20,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B20" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A20,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <f>IF(ISBLANK(Input!C21), Input!D21 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C21,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C21), Input!D21 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C21,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B21" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A21,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <f>IF(ISBLANK(Input!C22), Input!D22 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C22,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C22), Input!D22 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C22,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B22" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A22,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f>IF(ISBLANK(Input!C23), Input!D23 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C23,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C23), Input!D23 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C23,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B23" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A23,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <f>IF(ISBLANK(Input!C24), Input!D24 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C24,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C24), Input!D24 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C24,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B24" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A24,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <f>IF(ISBLANK(Input!C25), Input!D25 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C25,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C25), Input!D25 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C25,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B25" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A25,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <f>IF(ISBLANK(Input!C26), Input!D26 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C26,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C26), Input!D26 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C26,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B26" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A26,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <f>IF(ISBLANK(Input!C27), Input!D27 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C27,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C27), Input!D27 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C27,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B27" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A27,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <f>IF(ISBLANK(Input!C28), Input!D28 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C28,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C28), Input!D28 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C28,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B28" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A28,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <f>IF(ISBLANK(Input!C29), Input!D29 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C29,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C29), Input!D29 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C29,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B29" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A29,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <f>IF(ISBLANK(Input!C30), Input!D30 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C30,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C30), Input!D30 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C30,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B30" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A30,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <f>IF(ISBLANK(Input!C31), Input!D31 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C31,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C31), Input!D31 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C31,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B31" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A31,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <f>IF(ISBLANK(Input!C32), Input!D32 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C32,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C32), Input!D32 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C32,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B32" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A32,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <f>IF(ISBLANK(Input!C33), Input!D33 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C33,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C33), Input!D33 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C33,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B33" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A33,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <f>IF(ISBLANK(Input!C34), Input!D34 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C34,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C34), Input!D34 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C34,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B34" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A34,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <f>IF(ISBLANK(Input!C35), Input!D35 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C35,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C35), Input!D35 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C35,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B35" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A35,Name2SID!A:A,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <f>IF(ISBLANK(Input!C36), Input!D36 + 1155000000, INDEX(Name2SID!A:A,MATCH(Input!C36,Name2SID!D:D,0)))</f>
-        <v>1155000000</v>
+        <f>IF(ISBLANK(Input!C36), Input!D36 + 1155100000, INDEX(Name2SID!A:A,MATCH(Input!C36,Name2SID!D:D,0)))</f>
+        <v>1155100000</v>
       </c>
       <c r="B36" s="1" t="e">
         <f>INDEX(Name2SID!D:D,MATCH(Input!A36,Name2SID!A:A,0))</f>
@@ -1346,25 +1358,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="25" width="9.140625" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="25" width="9.1640625" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>Name2SID!A1</f>
         <v>Student ID</v>
@@ -1404,7 +1416,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>Name2SID!A2</f>
         <v>1155000001</v>
@@ -1447,7 +1459,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>Name2SID!A3</f>
         <v>1155111111</v>
@@ -1490,14 +1502,14 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Name2SID!A4</f>
         <v>1155123456</v>
       </c>
       <c r="B4" s="1">
         <f>COUNTIF(Input!A:A,Output!A4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>Name2SID!B4</f>
@@ -1507,13 +1519,13 @@
         <f>Name2SID!C4</f>
         <v>San</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="e">
         <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A4,Input!$A:$A,0)))</f>
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A4,Input!$A:$A,0)))</f>
-        <v>262</v>
+        <v>#N/A</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1533,7 +1545,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>Name2SID!A5</f>
         <v>1155566202</v>
@@ -1576,14 +1588,14 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>Name2SID!A6</f>
         <v>1155989565</v>
       </c>
       <c r="B6" s="1">
         <f>COUNTIF(Input!A:A,Output!A6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>Name2SID!B6</f>
@@ -1593,13 +1605,13 @@
         <f>Name2SID!C6</f>
         <v>Leonhard</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="e">
         <f>IF(ISBLANK(INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0))), "", INDEX(Input!E:E,MATCH(Output!$A6,Input!$A:$A,0)))</f>
-        <v>99</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>IF(ISBLANK(INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0))), "", INDEX(Input!F:F,MATCH(Output!$A6,Input!$A:$A,0)))</f>
-        <v>-22</v>
+        <v>#N/A</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1619,7 +1631,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>Name2SID!A7</f>
         <v>1155565651</v>
@@ -1662,7 +1674,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>Name2SID!A8</f>
         <v>1155123656</v>
@@ -1705,7 +1717,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>Name2SID!A9</f>
         <v>1155232898</v>
@@ -1748,7 +1760,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1764,7 +1776,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1780,7 +1792,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1796,7 +1808,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1812,7 +1824,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1828,7 +1840,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1844,7 +1856,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1860,7 +1872,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1876,7 +1888,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1892,7 +1904,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1908,7 +1920,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1924,7 +1936,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1940,7 +1952,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1956,7 +1968,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1972,7 +1984,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1988,7 +2000,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2004,7 +2016,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2020,7 +2032,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2037,7 +2049,7 @@
       <c r="Y27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B7"/>
+  <autoFilter ref="B1:B7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="B2:B9">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
@@ -2057,23 +2069,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>RawList!$C$1</f>
         <v>Student ID</v>
@@ -2093,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>RawList!C2</f>
         <v>1155000001</v>
@@ -2115,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>RawList!C3</f>
         <v>1155111111</v>
@@ -2137,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>RawList!C4</f>
         <v>1155123456</v>
@@ -2159,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>RawList!C5</f>
         <v>1155566202</v>
@@ -2181,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>RawList!C6</f>
         <v>1155989565</v>
@@ -2203,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>RawList!C7</f>
         <v>1155565651</v>
@@ -2225,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>RawList!C8</f>
         <v>1155123656</v>
@@ -2247,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>RawList!C9</f>
         <v>1155232898</v>
@@ -2285,22 +2297,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>1155000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2333,7 +2346,7 @@
         <v>1155111111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2344,7 +2357,7 @@
         <v>1155123456</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>1155566202</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2366,7 +2379,7 @@
         <v>1155989565</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2390,7 @@
         <v>1155565651</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>1155123656</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2405,21 +2418,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010037EA8EFF7603AD4589909F2D6CDAEF87" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1204792ee41e8d2f815be72486018407">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e3cef67-c514-4257-80f7-3488369f6876" xmlns:ns4="3ef59f0b-425e-41d0-9729-9f55f01e369c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d365b7dfa1eb6cee661573828196401b" ns3:_="" ns4:_="">
     <xsd:import namespace="8e3cef67-c514-4257-80f7-3488369f6876"/>
@@ -2642,32 +2640,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
-    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B987F8-BB67-4BF3-87FF-552DF7D9BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2684,4 +2672,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EE8607-BA45-45DE-BE65-B1415EAF701D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5333C76-115D-42A1-88EF-903D02FC6396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ef59f0b-425e-41d0-9729-9f55f01e369c"/>
+    <ds:schemaRef ds:uri="8e3cef67-c514-4257-80f7-3488369f6876"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>